--- a/Data/EC/NIT-8904004356.xlsx
+++ b/Data/EC/NIT-8904004356.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2BE9A8-0F91-4CB5-9B8C-B66EC43B77DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74DE73E5-9A82-40C2-899A-74D1E41CE9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D1830C4-AAAD-497D-84CD-C9686C39EF2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5899E78B-77E8-41E0-82D4-C0E8017BDFB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="124">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,192 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8510940</t>
+  </si>
+  <si>
+    <t>LIBARDO JOSE MORENO ARIZA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>73353687</t>
+  </si>
+  <si>
+    <t>HENRY ALBERTO CASTILLO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>8845125</t>
+  </si>
+  <si>
+    <t>ANGEL MARIA OLIVARES DIAZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>9237378</t>
   </si>
   <si>
@@ -74,34 +260,103 @@
     <t>2103</t>
   </si>
   <si>
-    <t>9042839</t>
-  </si>
-  <si>
-    <t>MAIRO ALVARADO AGAMEZ</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>73269389</t>
-  </si>
-  <si>
-    <t>YOVANIS ANTONIO CASTILLO CASTRO</t>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1003203680</t>
+  </si>
+  <si>
+    <t>MANUEL HERNANDEZ TOLOSA</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
   </si>
   <si>
     <t>2305</t>
   </si>
   <si>
-    <t>73353687</t>
-  </si>
-  <si>
-    <t>HENRY ALBERTO CASTILLO HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1901</t>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
   </si>
   <si>
     <t>73350161</t>
@@ -113,267 +368,6 @@
     <t>2311</t>
   </si>
   <si>
-    <t>8510940</t>
-  </si>
-  <si>
-    <t>LIBARDO JOSE MORENO ARIZA</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1049942832</t>
   </si>
   <si>
@@ -381,27 +375,6 @@
   </si>
   <si>
     <t>2405</t>
-  </si>
-  <si>
-    <t>8845125</t>
-  </si>
-  <si>
-    <t>ANGEL MARIA OLIVARES DIAZ</t>
-  </si>
-  <si>
-    <t>20334608</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS CASTRO MARTINEZ</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1003203680</t>
-  </si>
-  <si>
-    <t>MANUEL HERNANDEZ TOLOSA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +473,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +488,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +688,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +732,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +788,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D57373-2695-A411-0D41-277E73480878}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84DBFDA-D167-344C-8915-C28800E04163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1139,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82AAA3B-A9E2-4E8A-8620-3E20C4184AAD}">
-  <dimension ref="B2:J120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FF285F-0A7F-4FAC-AFD9-53F9C28974A6}">
+  <dimension ref="B2:J116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1164,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1209,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1241,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2436587</v>
+        <v>2284819</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1257,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1294,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1344,10 +1317,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1211</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1358,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>24640</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1381,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>24640</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1404,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>1547</v>
+        <v>24640</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1427,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>18771</v>
+        <v>24640</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1450,16 +1423,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>1547</v>
+        <v>24640</v>
       </c>
       <c r="G21" s="18">
         <v>1300000</v>
@@ -1473,16 +1446,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>24640</v>
       </c>
       <c r="G22" s="18">
         <v>1300000</v>
@@ -1496,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>24640</v>
@@ -1519,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>24640</v>
@@ -1542,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>24640</v>
@@ -1565,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>24640</v>
@@ -1588,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>24640</v>
@@ -1611,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>24640</v>
@@ -1634,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>24640</v>
@@ -1657,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="F30" s="18">
         <v>24640</v>
@@ -1680,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>34</v>
       </c>
       <c r="F31" s="18">
         <v>24640</v>
@@ -1703,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>24640</v>
@@ -1726,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>24640</v>
@@ -1749,13 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>24640</v>
@@ -1772,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>24640</v>
@@ -1795,13 +1768,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>24640</v>
@@ -1818,13 +1791,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>24640</v>
@@ -1841,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1864,13 +1837,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>24640</v>
@@ -1887,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>24640</v>
@@ -1910,13 +1883,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>24640</v>
@@ -1933,13 +1906,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>24640</v>
@@ -1956,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>24640</v>
@@ -1979,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>24640</v>
@@ -2002,13 +1975,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>24640</v>
@@ -2025,19 +1998,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>18771</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2048,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>24640</v>
@@ -2071,13 +2044,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>24640</v>
@@ -2094,13 +2067,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>24640</v>
@@ -2117,13 +2090,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>24640</v>
@@ -2140,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>24640</v>
@@ -2163,13 +2136,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>24640</v>
@@ -2186,13 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>24640</v>
@@ -2209,13 +2182,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>24640</v>
@@ -2232,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>24640</v>
@@ -2255,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>24640</v>
@@ -2278,13 +2251,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>24640</v>
@@ -2301,13 +2274,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>24640</v>
@@ -2324,19 +2297,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>24640</v>
+        <v>1104</v>
       </c>
       <c r="G59" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2347,13 +2320,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
         <v>24640</v>
@@ -2370,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>24640</v>
@@ -2393,13 +2366,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
         <v>24640</v>
@@ -2416,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>24640</v>
@@ -2439,13 +2412,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
         <v>24640</v>
@@ -2462,13 +2435,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
         <v>24640</v>
@@ -2485,13 +2458,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>24640</v>
@@ -2508,13 +2481,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
         <v>24640</v>
@@ -2531,13 +2504,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>24640</v>
@@ -2554,13 +2527,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>24640</v>
@@ -2577,13 +2550,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
         <v>24640</v>
@@ -2600,13 +2573,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>24640</v>
@@ -2623,13 +2596,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>24640</v>
@@ -2646,13 +2619,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
         <v>24640</v>
@@ -2669,19 +2642,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F74" s="18">
-        <v>24640</v>
+        <v>1211</v>
       </c>
       <c r="G74" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2692,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>24640</v>
@@ -2715,13 +2688,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>24640</v>
@@ -2738,13 +2711,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
         <v>24640</v>
@@ -2761,13 +2734,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>24640</v>
@@ -2784,13 +2757,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>24640</v>
@@ -2807,13 +2780,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>24640</v>
@@ -2830,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>24640</v>
@@ -2853,13 +2826,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>24640</v>
@@ -2876,13 +2849,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>24640</v>
@@ -2899,13 +2872,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>24640</v>
@@ -2922,13 +2895,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>24640</v>
@@ -2945,13 +2918,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>24640</v>
@@ -2968,19 +2941,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
-        <v>24640</v>
+        <v>9333</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2991,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F88" s="18">
         <v>24640</v>
@@ -3014,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F89" s="18">
         <v>24640</v>
@@ -3037,13 +3010,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F90" s="18">
         <v>24640</v>
@@ -3060,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F91" s="18">
         <v>24640</v>
@@ -3083,13 +3056,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F92" s="18">
         <v>24640</v>
@@ -3106,13 +3079,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F93" s="18">
         <v>24640</v>
@@ -3129,13 +3102,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F94" s="18">
         <v>24640</v>
@@ -3152,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F95" s="18">
         <v>24640</v>
@@ -3175,13 +3148,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F96" s="18">
         <v>24640</v>
@@ -3198,13 +3171,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F97" s="18">
         <v>24640</v>
@@ -3221,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F98" s="18">
         <v>24640</v>
@@ -3244,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F99" s="18">
         <v>24640</v>
@@ -3267,13 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F100" s="18">
         <v>24640</v>
@@ -3290,13 +3263,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F101" s="18">
         <v>24640</v>
@@ -3313,13 +3286,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F102" s="18">
         <v>24640</v>
@@ -3336,13 +3309,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F103" s="18">
         <v>24640</v>
@@ -3359,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F104" s="18">
         <v>24640</v>
@@ -3382,13 +3355,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F105" s="18">
         <v>24640</v>
@@ -3405,13 +3378,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F106" s="18">
         <v>24640</v>
@@ -3428,13 +3401,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F107" s="18">
         <v>24640</v>
@@ -3451,19 +3424,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>109</v>
       </c>
       <c r="F108" s="18">
-        <v>24640</v>
+        <v>1547</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3474,16 +3447,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F109" s="18">
-        <v>24640</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
         <v>1300000</v>
@@ -3493,148 +3466,56 @@
       <c r="J109" s="20"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E110" s="16" t="s">
+      <c r="B110" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F110" s="18">
-        <v>24640</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
+      <c r="E110" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D111" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="F111" s="18">
+      <c r="F110" s="24">
         <v>38133</v>
       </c>
-      <c r="G111" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F112" s="18">
-        <v>1104</v>
-      </c>
-      <c r="G112" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F113" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G113" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D114" s="23" t="s">
+      <c r="G110" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="26"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="32"/>
+      <c r="H115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" s="24">
-        <v>9333</v>
-      </c>
-      <c r="G114" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="26"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" s="32"/>
-      <c r="H119" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C120" s="32"/>
-      <c r="H120" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="C116" s="32"/>
+      <c r="H116" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
